--- a/EU Free Shipping Trails/EU_Updated_SKU_Data_with_International_Shipping.xlsx
+++ b/EU Free Shipping Trails/EU_Updated_SKU_Data_with_International_Shipping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olcay\Desktop\TASKS\TrakRacer\EU Free Shipping Trails\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olcay\Desktop\ALL TASKS\EU Free Shipping Trails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A0327D-83E0-44BF-B71F-F7FAB58AC725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAD3408-6D84-4DD9-9257-C0D7392A9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51705" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2114,7 +2114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2126,6 +2126,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2156,8 +2157,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2210,6 +2219,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2250,12 +2264,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2288,9 +2303,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2719,17 +2736,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G531" sqref="G531"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
     <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
@@ -2760,8 +2776,8 @@
     <col min="31" max="31" width="31.453125" style="3" customWidth="1"/>
     <col min="32" max="32" width="24.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="37.7265625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="42.1796875" style="3" customWidth="1"/>
     <col min="36" max="36" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -2879,7 +2895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2989,7 +3005,7 @@
         <v>170.6252499999996</v>
       </c>
     </row>
-    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3099,7 +3115,7 @@
         <v>132.4052499999998</v>
       </c>
     </row>
-    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -3209,7 +3225,7 @@
         <v>142.83524999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3319,7 +3335,7 @@
         <v>102.37524999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -3429,7 +3445,7 @@
         <v>77.805249999999958</v>
       </c>
     </row>
-    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3539,7 +3555,7 @@
         <v>172.86524999999969</v>
       </c>
     </row>
-    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3634,7 +3650,7 @@
         <v>70.525249999999986</v>
       </c>
     </row>
-    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3744,7 +3760,7 @@
         <v>69.615249999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3854,7 +3870,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3964,7 +3980,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4074,7 +4090,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -4184,7 +4200,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -4294,7 +4310,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -4404,7 +4420,7 @@
         <v>41.101200000000013</v>
       </c>
     </row>
-    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -4514,7 +4530,7 @@
         <v>41.101200000000013</v>
       </c>
     </row>
-    <row r="17" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4618,7 +4634,7 @@
         <v>65.939750000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -4728,7 +4744,7 @@
         <v>41.101200000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -4838,7 +4854,7 @@
         <v>47.939749999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -4948,7 +4964,7 @@
         <v>101.4652499999999</v>
       </c>
     </row>
-    <row r="21" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -5058,7 +5074,7 @@
         <v>33.167549999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5165,7 +5181,7 @@
         <v>31.944299999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -5275,7 +5291,7 @@
         <v>33.167549999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -5385,7 +5401,7 @@
         <v>32.561750000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -5492,7 +5508,7 @@
         <v>33.167549999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5602,7 +5618,7 @@
         <v>31.944299999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -5709,7 +5725,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -5816,7 +5832,7 @@
         <v>71.435249999999982</v>
       </c>
     </row>
-    <row r="29" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -5923,7 +5939,7 @@
         <v>104.1952499999999</v>
       </c>
     </row>
-    <row r="30" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -6030,7 +6046,7 @@
         <v>107.8352499999998</v>
       </c>
     </row>
-    <row r="31" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -6137,7 +6153,7 @@
         <v>107.8352499999998</v>
       </c>
     </row>
-    <row r="32" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -6244,7 +6260,7 @@
         <v>78.715249999999955</v>
       </c>
     </row>
-    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -6351,7 +6367,7 @@
         <v>111.4752499999998</v>
       </c>
     </row>
-    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -6458,7 +6474,7 @@
         <v>115.1152499999998</v>
       </c>
     </row>
-    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -6565,7 +6581,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -6672,7 +6688,7 @@
         <v>73.255249999999975</v>
       </c>
     </row>
-    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -6782,7 +6798,7 @@
         <v>110.07525</v>
       </c>
     </row>
-    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -6892,7 +6908,7 @@
         <v>113.71525</v>
       </c>
     </row>
-    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -7002,7 +7018,7 @@
         <v>113.71525</v>
       </c>
     </row>
-    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -7109,7 +7125,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -7219,7 +7235,7 @@
         <v>73.255249999999975</v>
       </c>
     </row>
-    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -7329,7 +7345,7 @@
         <v>75.985249999999965</v>
       </c>
     </row>
-    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -7439,7 +7455,7 @@
         <v>30.721050000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -7549,7 +7565,7 @@
         <v>110.07525</v>
       </c>
     </row>
-    <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -7659,7 +7675,7 @@
         <v>108.25525</v>
       </c>
     </row>
-    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -7876,7 +7892,7 @@
         <v>26.457149999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -7986,7 +8002,7 @@
         <v>110.07525</v>
       </c>
     </row>
-    <row r="49" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -8096,7 +8112,7 @@
         <v>108.25525</v>
       </c>
     </row>
-    <row r="50" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -8206,7 +8222,7 @@
         <v>72.345249999999979</v>
       </c>
     </row>
-    <row r="51" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -8316,7 +8332,7 @@
         <v>100.0536</v>
       </c>
     </row>
-    <row r="52" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -8423,7 +8439,7 @@
         <v>79.514650000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -8533,7 +8549,7 @@
         <v>61.640149999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -8640,7 +8656,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -8750,7 +8766,7 @@
         <v>70.525249999999986</v>
       </c>
     </row>
-    <row r="56" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -8860,7 +8876,7 @@
         <v>96.640150000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -8967,7 +8983,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -9074,7 +9090,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -9184,7 +9200,7 @@
         <v>100.97525</v>
       </c>
     </row>
-    <row r="60" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -9294,7 +9310,7 @@
         <v>100.0536</v>
       </c>
     </row>
-    <row r="61" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -9404,7 +9420,7 @@
         <v>100.97525</v>
       </c>
     </row>
-    <row r="62" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -9514,7 +9530,7 @@
         <v>100.0536</v>
       </c>
     </row>
-    <row r="63" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -9624,7 +9640,7 @@
         <v>61.640149999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -9734,7 +9750,7 @@
         <v>65.053600000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -9844,7 +9860,7 @@
         <v>65.053600000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -9954,7 +9970,7 @@
         <v>67.795249999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -10061,7 +10077,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -10171,7 +10187,7 @@
         <v>100.0536</v>
       </c>
     </row>
-    <row r="69" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -10281,7 +10297,7 @@
         <v>96.640150000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -10391,7 +10407,7 @@
         <v>100.0536</v>
       </c>
     </row>
-    <row r="71" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>110</v>
       </c>
@@ -10501,7 +10517,7 @@
         <v>67.795249999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>111</v>
       </c>
@@ -10608,7 +10624,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -10718,7 +10734,7 @@
         <v>100.0536</v>
       </c>
     </row>
-    <row r="74" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -10828,7 +10844,7 @@
         <v>96.640150000000006</v>
       </c>
     </row>
-    <row r="75" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -10938,7 +10954,7 @@
         <v>100.0536</v>
       </c>
     </row>
-    <row r="76" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -11045,7 +11061,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -11155,7 +11171,7 @@
         <v>61.640149999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -11265,7 +11281,7 @@
         <v>61.640149999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -11375,7 +11391,7 @@
         <v>65.053600000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -11485,7 +11501,7 @@
         <v>61.640149999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -11595,7 +11611,7 @@
         <v>65.053600000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>121</v>
       </c>
@@ -11705,7 +11721,7 @@
         <v>70.525249999999986</v>
       </c>
     </row>
-    <row r="83" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>122</v>
       </c>
@@ -12029,7 +12045,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -12139,7 +12155,7 @@
         <v>96.640150000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -12249,7 +12265,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -12359,7 +12375,7 @@
         <v>61.640149999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>128</v>
       </c>
@@ -12469,7 +12485,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>129</v>
       </c>
@@ -12579,7 +12595,7 @@
         <v>27.680399999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>130</v>
       </c>
@@ -12689,7 +12705,7 @@
         <v>93.215049999999991</v>
       </c>
     </row>
-    <row r="92" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -12799,7 +12815,7 @@
         <v>89.789950000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -12909,7 +12925,7 @@
         <v>69.615249999999989</v>
       </c>
     </row>
-    <row r="94" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>133</v>
       </c>
@@ -13019,7 +13035,7 @@
         <v>66.885249999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>134</v>
       </c>
@@ -13126,7 +13142,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>135</v>
       </c>
@@ -13233,7 +13249,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="97" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -13343,7 +13359,7 @@
         <v>65.065250000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>137</v>
       </c>
@@ -13450,7 +13466,7 @@
         <v>63.286200000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>138</v>
       </c>
@@ -13557,7 +13573,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="100" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -13664,7 +13680,7 @@
         <v>30.721050000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>140</v>
       </c>
@@ -13771,7 +13787,7 @@
         <v>18.010899999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -13881,7 +13897,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>142</v>
       </c>
@@ -13988,7 +14004,7 @@
         <v>27.680399999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -14095,7 +14111,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -14202,7 +14218,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>145</v>
       </c>
@@ -14312,7 +14328,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>146</v>
       </c>
@@ -14422,7 +14438,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>147</v>
       </c>
@@ -14532,7 +14548,7 @@
         <v>27.062950000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -14642,7 +14658,7 @@
         <v>89.789950000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -14749,117 +14765,117 @@
         <v>25.233899999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+    <row r="111" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="14">
         <v>41587593380034</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="14">
         <v>50.53</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="14">
         <v>569</v>
       </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
+      <c r="H111" s="14">
+        <v>0</v>
+      </c>
+      <c r="I111" s="14">
+        <v>0</v>
+      </c>
+      <c r="J111" s="14">
+        <v>0</v>
+      </c>
+      <c r="K111" s="14">
+        <v>0</v>
+      </c>
+      <c r="L111" s="14">
+        <v>0</v>
+      </c>
+      <c r="M111" s="14">
         <v>17</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="14">
         <v>11.756481000000001</v>
       </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111">
+      <c r="O111" s="14">
+        <v>0</v>
+      </c>
+      <c r="P111" s="14">
         <v>1</v>
       </c>
-      <c r="Q111" s="11" t="s">
+      <c r="Q111" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="R111">
+      <c r="R111" s="14">
         <v>50.53</v>
       </c>
-      <c r="S111">
+      <c r="S111" s="14">
         <v>34.296784499999987</v>
       </c>
-      <c r="T111">
+      <c r="T111" s="14">
         <v>35</v>
       </c>
-      <c r="U111">
+      <c r="U111" s="14">
         <v>23.794892000000001</v>
       </c>
-      <c r="V111">
+      <c r="V111" s="14">
         <v>25.571051000000001</v>
       </c>
-      <c r="W111">
+      <c r="W111" s="14">
         <v>14.096500000000001</v>
       </c>
-      <c r="X111">
+      <c r="X111" s="14">
         <v>46.800379999999997</v>
       </c>
-      <c r="Y111">
+      <c r="Y111" s="14">
         <v>46.800379999999997</v>
       </c>
-      <c r="Z111">
+      <c r="Z111" s="14">
         <v>33.558127900000002</v>
       </c>
-      <c r="AA111">
+      <c r="AA111" s="14">
         <v>29.008500000000002</v>
       </c>
-      <c r="AB111">
+      <c r="AB111" s="14">
         <v>54.789949999999997</v>
       </c>
-      <c r="AC111" s="3">
+      <c r="AC111" s="14">
         <v>69.296784500000001</v>
       </c>
-      <c r="AD111" s="3">
+      <c r="AD111" s="14">
         <v>58.794891999999997</v>
       </c>
-      <c r="AE111" s="3">
+      <c r="AE111" s="14">
         <v>60.571050999999997</v>
       </c>
-      <c r="AF111" s="3">
+      <c r="AF111" s="14">
         <v>49.096499999999999</v>
       </c>
-      <c r="AG111" s="3">
+      <c r="AG111" s="14">
         <v>81.800380000000004</v>
       </c>
-      <c r="AH111" s="3">
+      <c r="AH111" s="14">
         <v>81.800380000000004</v>
       </c>
-      <c r="AI111" s="3">
+      <c r="AI111" s="14">
         <v>68.558127900000002</v>
       </c>
-      <c r="AJ111" s="3">
+      <c r="AJ111" s="14">
         <v>64.008499999999998</v>
       </c>
-      <c r="AK111" s="3">
+      <c r="AK111" s="14">
         <v>89.789950000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>151</v>
       </c>
@@ -14969,7 +14985,7 @@
         <v>96.640150000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -15079,7 +15095,7 @@
         <v>65.053600000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -15189,7 +15205,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>154</v>
       </c>
@@ -15296,7 +15312,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -15403,7 +15419,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>156</v>
       </c>
@@ -15513,7 +15529,7 @@
         <v>65.975250000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>157</v>
       </c>
@@ -15623,7 +15639,7 @@
         <v>61.640149999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>158</v>
       </c>
@@ -15733,7 +15749,7 @@
         <v>65.065250000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>159</v>
       </c>
@@ -15843,7 +15859,7 @@
         <v>65.053600000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>160</v>
       </c>
@@ -15953,7 +15969,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -16060,7 +16076,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>162</v>
       </c>
@@ -16170,7 +16186,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>163</v>
       </c>
@@ -16280,7 +16296,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>164</v>
       </c>
@@ -16387,7 +16403,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="126" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>165</v>
       </c>
@@ -16494,7 +16510,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="127" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -16604,7 +16620,7 @@
         <v>82.939750000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>167</v>
       </c>
@@ -16714,7 +16730,7 @@
         <v>82.939750000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -16824,7 +16840,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>169</v>
       </c>
@@ -16934,7 +16950,7 @@
         <v>65.053600000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>170</v>
       </c>
@@ -17041,7 +17057,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>171</v>
       </c>
@@ -17151,7 +17167,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>172</v>
       </c>
@@ -17258,7 +17274,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -17365,7 +17381,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>174</v>
       </c>
@@ -17475,7 +17491,7 @@
         <v>65.053600000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:37" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="s">
         <v>175</v>
       </c>
@@ -17585,7 +17601,7 @@
         <v>79.514650000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>176</v>
       </c>
@@ -17695,7 +17711,7 @@
         <v>79.514650000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>177</v>
       </c>
@@ -17805,7 +17821,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>178</v>
       </c>
@@ -17915,7 +17931,7 @@
         <v>51.364849999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>179</v>
       </c>
@@ -18025,7 +18041,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="141" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>180</v>
       </c>
@@ -18135,7 +18151,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="142" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>181</v>
       </c>
@@ -18245,7 +18261,7 @@
         <v>82.939750000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>182</v>
       </c>
@@ -18355,7 +18371,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>183</v>
       </c>
@@ -18465,7 +18481,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -18572,7 +18588,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>185</v>
       </c>
@@ -18682,7 +18698,7 @@
         <v>61.640149999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>186</v>
       </c>
@@ -18789,7 +18805,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>187</v>
       </c>
@@ -18896,7 +18912,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>188</v>
       </c>
@@ -19006,7 +19022,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>189</v>
       </c>
@@ -19113,7 +19129,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>190</v>
       </c>
@@ -19220,7 +19236,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>191</v>
       </c>
@@ -19330,7 +19346,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="153" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>192</v>
       </c>
@@ -19440,7 +19456,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="154" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>193</v>
       </c>
@@ -19550,7 +19566,7 @@
         <v>28.891999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>194</v>
       </c>
@@ -19657,7 +19673,7 @@
         <v>77.805249999999958</v>
       </c>
     </row>
-    <row r="156" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>195</v>
       </c>
@@ -19764,7 +19780,7 @@
         <v>70.525249999999986</v>
       </c>
     </row>
-    <row r="157" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>196</v>
       </c>
@@ -19871,7 +19887,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>197</v>
       </c>
@@ -19978,7 +19994,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>198</v>
       </c>
@@ -20085,7 +20101,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -20192,7 +20208,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>200</v>
       </c>
@@ -20406,7 +20422,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>202</v>
       </c>
@@ -20513,7 +20529,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>203</v>
       </c>
@@ -20623,7 +20639,7 @@
         <v>76.101200000000006</v>
       </c>
     </row>
-    <row r="165" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>204</v>
       </c>
@@ -20733,7 +20749,7 @@
         <v>41.101200000000013</v>
       </c>
     </row>
-    <row r="166" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>205</v>
       </c>
@@ -20843,7 +20859,7 @@
         <v>82.939750000000004</v>
       </c>
     </row>
-    <row r="167" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>206</v>
       </c>
@@ -20950,7 +20966,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>207</v>
       </c>
@@ -21057,7 +21073,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>208</v>
       </c>
@@ -21167,7 +21183,7 @@
         <v>82.939750000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -21277,7 +21293,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>210</v>
       </c>
@@ -21387,7 +21403,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>211</v>
       </c>
@@ -21497,7 +21513,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>212</v>
       </c>
@@ -21607,7 +21623,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>213</v>
       </c>
@@ -21717,7 +21733,7 @@
         <v>76.101200000000006</v>
       </c>
     </row>
-    <row r="175" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>214</v>
       </c>
@@ -21824,7 +21840,7 @@
         <v>30.11525</v>
       </c>
     </row>
-    <row r="176" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>215</v>
       </c>
@@ -21934,7 +21950,7 @@
         <v>76.101200000000006</v>
       </c>
     </row>
-    <row r="177" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>216</v>
       </c>
@@ -22044,7 +22060,7 @@
         <v>82.939750000000004</v>
       </c>
     </row>
-    <row r="178" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>217</v>
       </c>
@@ -22154,7 +22170,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>218</v>
       </c>
@@ -22264,7 +22280,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -22371,7 +22387,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>220</v>
       </c>
@@ -22481,7 +22497,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>221</v>
       </c>
@@ -22588,7 +22604,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>222</v>
       </c>
@@ -22695,7 +22711,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>223</v>
       </c>
@@ -22802,7 +22818,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>224</v>
       </c>
@@ -22912,7 +22928,7 @@
         <v>31.944299999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>225</v>
       </c>
@@ -23022,7 +23038,7 @@
         <v>31.944299999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>226</v>
       </c>
@@ -23132,7 +23148,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>227</v>
       </c>
@@ -23242,7 +23258,7 @@
         <v>58.215049999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>228</v>
       </c>
@@ -23352,7 +23368,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>229</v>
       </c>
@@ -23462,7 +23478,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>230</v>
       </c>
@@ -23572,7 +23588,7 @@
         <v>33.773350000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>231</v>
       </c>
@@ -23679,7 +23695,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>232</v>
       </c>
@@ -23786,7 +23802,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>233</v>
       </c>
@@ -23893,7 +23909,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="195" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>234</v>
       </c>
@@ -24003,7 +24019,7 @@
         <v>33.773350000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>235</v>
       </c>
@@ -24113,7 +24129,7 @@
         <v>51.364849999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>236</v>
       </c>
@@ -24223,7 +24239,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="198" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>237</v>
       </c>
@@ -24333,7 +24349,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="199" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>238</v>
       </c>
@@ -24443,7 +24459,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>239</v>
       </c>
@@ -24553,7 +24569,7 @@
         <v>28.286200000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>240</v>
       </c>
@@ -24663,7 +24679,7 @@
         <v>31.3385</v>
       </c>
     </row>
-    <row r="202" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>241</v>
       </c>
@@ -24773,7 +24789,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>242</v>
       </c>
@@ -24883,7 +24899,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>243</v>
       </c>
@@ -24993,7 +25009,7 @@
         <v>51.364849999999997</v>
       </c>
     </row>
-    <row r="205" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>244</v>
       </c>
@@ -25103,7 +25119,7 @@
         <v>51.364849999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>245</v>
       </c>
@@ -25213,7 +25229,7 @@
         <v>28.891999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>246</v>
       </c>
@@ -25320,7 +25336,7 @@
         <v>33.773350000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>247</v>
       </c>
@@ -25430,7 +25446,7 @@
         <v>28.891999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>248</v>
       </c>
@@ -25540,7 +25556,7 @@
         <v>18.010899999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>249</v>
       </c>
@@ -25647,7 +25663,7 @@
         <v>62.062950000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>250</v>
       </c>
@@ -25757,7 +25773,7 @@
         <v>30.721050000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>251</v>
       </c>
@@ -25867,7 +25883,7 @@
         <v>27.680399999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>252</v>
       </c>
@@ -25977,7 +25993,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>253</v>
       </c>
@@ -26087,7 +26103,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>254</v>
       </c>
@@ -26197,7 +26213,7 @@
         <v>25.233899999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>255</v>
       </c>
@@ -26307,7 +26323,7 @@
         <v>28.286200000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>256</v>
       </c>
@@ -26414,7 +26430,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>257</v>
       </c>
@@ -26524,7 +26540,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="219" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>258</v>
       </c>
@@ -26634,7 +26650,7 @@
         <v>33.773350000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>259</v>
       </c>
@@ -26744,7 +26760,7 @@
         <v>51.364849999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>260</v>
       </c>
@@ -26851,7 +26867,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="222" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>261</v>
       </c>
@@ -26958,7 +26974,7 @@
         <v>75.075249999999969</v>
       </c>
     </row>
-    <row r="223" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>262</v>
       </c>
@@ -27065,7 +27081,7 @@
         <v>68.705249999999992</v>
       </c>
     </row>
-    <row r="224" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>263</v>
       </c>
@@ -27172,7 +27188,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>264</v>
       </c>
@@ -27279,7 +27295,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>265</v>
       </c>
@@ -27386,7 +27402,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>266</v>
       </c>
@@ -27493,7 +27509,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>267</v>
       </c>
@@ -27600,7 +27616,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>268</v>
       </c>
@@ -27710,7 +27726,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>269</v>
       </c>
@@ -27820,7 +27836,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>270</v>
       </c>
@@ -27927,7 +27943,7 @@
         <v>29.509450000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>271</v>
       </c>
@@ -28034,7 +28050,7 @@
         <v>25.233899999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>272</v>
       </c>
@@ -28141,7 +28157,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>273</v>
       </c>
@@ -28251,7 +28267,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="235" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>274</v>
       </c>
@@ -28361,7 +28377,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="236" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>275</v>
       </c>
@@ -28471,7 +28487,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>276</v>
       </c>
@@ -28581,7 +28597,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>277</v>
       </c>
@@ -28691,7 +28707,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>278</v>
       </c>
@@ -28801,7 +28817,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="240" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>279</v>
       </c>
@@ -28911,7 +28927,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>280</v>
       </c>
@@ -29021,7 +29037,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>281</v>
       </c>
@@ -29131,7 +29147,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>282</v>
       </c>
@@ -29241,7 +29257,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>283</v>
       </c>
@@ -29351,7 +29367,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>284</v>
       </c>
@@ -29461,7 +29477,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>285</v>
       </c>
@@ -29571,7 +29587,7 @@
         <v>26.457149999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>286</v>
       </c>
@@ -29681,7 +29697,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>287</v>
       </c>
@@ -29791,7 +29807,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>288</v>
       </c>
@@ -29898,7 +29914,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="250" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>289</v>
       </c>
@@ -30005,7 +30021,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>290</v>
       </c>
@@ -30112,7 +30128,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="252" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>291</v>
       </c>
@@ -30222,7 +30238,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="253" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>292</v>
       </c>
@@ -30329,7 +30345,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="254" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>293</v>
       </c>
@@ -30439,7 +30455,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>294</v>
       </c>
@@ -30549,7 +30565,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>295</v>
       </c>
@@ -30659,7 +30675,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>296</v>
       </c>
@@ -30769,7 +30785,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>297</v>
       </c>
@@ -30879,7 +30895,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>298</v>
       </c>
@@ -30989,7 +31005,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>299</v>
       </c>
@@ -31099,7 +31115,7 @@
         <v>23.40485</v>
       </c>
     </row>
-    <row r="261" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>300</v>
       </c>
@@ -31209,7 +31225,7 @@
         <v>18.010899999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>301</v>
       </c>
@@ -31527,7 +31543,7 @@
         <v>25.233899999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>304</v>
       </c>
@@ -31637,7 +31653,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>305</v>
       </c>
@@ -31747,7 +31763,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>306</v>
       </c>
@@ -31857,7 +31873,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>307</v>
       </c>
@@ -31967,7 +31983,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>308</v>
       </c>
@@ -32077,7 +32093,7 @@
         <v>30.11525</v>
       </c>
     </row>
-    <row r="270" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>309</v>
       </c>
@@ -32184,7 +32200,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>310</v>
       </c>
@@ -32294,7 +32310,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>311</v>
       </c>
@@ -32404,7 +32420,7 @@
         <v>24.010649999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>312</v>
       </c>
@@ -32514,7 +32530,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>313</v>
       </c>
@@ -32624,7 +32640,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>314</v>
       </c>
@@ -32734,7 +32750,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="276" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>315</v>
       </c>
@@ -32844,7 +32860,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>316</v>
       </c>
@@ -32954,7 +32970,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>317</v>
       </c>
@@ -33064,7 +33080,7 @@
         <v>23.40485</v>
       </c>
     </row>
-    <row r="279" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>318</v>
       </c>
@@ -33174,7 +33190,7 @@
         <v>41.101200000000013</v>
       </c>
     </row>
-    <row r="280" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>319</v>
       </c>
@@ -33284,7 +33300,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>321</v>
       </c>
@@ -33391,7 +33407,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>322</v>
       </c>
@@ -33498,7 +33514,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>323</v>
       </c>
@@ -33605,7 +33621,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>324</v>
       </c>
@@ -33712,7 +33728,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>325</v>
       </c>
@@ -33819,7 +33835,7 @@
         <v>25.233899999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>326</v>
       </c>
@@ -33926,7 +33942,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>327</v>
       </c>
@@ -34033,7 +34049,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>328</v>
       </c>
@@ -34140,7 +34156,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>329</v>
       </c>
@@ -34247,7 +34263,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>330</v>
       </c>
@@ -34354,7 +34370,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>331</v>
       </c>
@@ -34464,7 +34480,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>332</v>
       </c>
@@ -34571,7 +34587,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="293" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>333</v>
       </c>
@@ -34681,7 +34697,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="294" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>334</v>
       </c>
@@ -34788,7 +34804,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>335</v>
       </c>
@@ -34898,7 +34914,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>336</v>
       </c>
@@ -35008,7 +35024,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>337</v>
       </c>
@@ -35118,7 +35134,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>338</v>
       </c>
@@ -35228,7 +35244,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>339</v>
       </c>
@@ -35338,7 +35354,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>340</v>
       </c>
@@ -35448,7 +35464,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>341</v>
       </c>
@@ -35558,7 +35574,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>342</v>
       </c>
@@ -35665,7 +35681,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>343</v>
       </c>
@@ -35775,7 +35791,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>344</v>
       </c>
@@ -36096,7 +36112,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="307" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>106</v>
       </c>
@@ -36203,7 +36219,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="308" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>347</v>
       </c>
@@ -36310,7 +36326,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="309" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>348</v>
       </c>
@@ -36417,7 +36433,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="310" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>349</v>
       </c>
@@ -36631,7 +36647,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>351</v>
       </c>
@@ -36738,7 +36754,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>352</v>
       </c>
@@ -36848,7 +36864,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="314" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>353</v>
       </c>
@@ -36958,7 +36974,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="315" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>354</v>
       </c>
@@ -37065,7 +37081,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="316" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>355</v>
       </c>
@@ -37175,7 +37191,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="317" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>356</v>
       </c>
@@ -37285,7 +37301,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>357</v>
       </c>
@@ -37395,7 +37411,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>358</v>
       </c>
@@ -37612,7 +37628,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>360</v>
       </c>
@@ -37722,7 +37738,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>361</v>
       </c>
@@ -37832,7 +37848,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>362</v>
       </c>
@@ -37939,7 +37955,7 @@
         <v>33.167549999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>363</v>
       </c>
@@ -38049,7 +38065,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>364</v>
       </c>
@@ -38159,7 +38175,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>365</v>
       </c>
@@ -38269,7 +38285,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>366</v>
       </c>
@@ -38379,7 +38395,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>367</v>
       </c>
@@ -38489,7 +38505,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>368</v>
       </c>
@@ -38596,7 +38612,7 @@
         <v>82.939750000000004</v>
       </c>
     </row>
-    <row r="330" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>369</v>
       </c>
@@ -38703,7 +38719,7 @@
         <v>41.101200000000013</v>
       </c>
     </row>
-    <row r="331" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>370</v>
       </c>
@@ -38810,7 +38826,7 @@
         <v>76.101200000000006</v>
       </c>
     </row>
-    <row r="332" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>371</v>
       </c>
@@ -38920,7 +38936,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>372</v>
       </c>
@@ -39030,7 +39046,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>373</v>
       </c>
@@ -39137,7 +39153,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>374</v>
       </c>
@@ -39247,7 +39263,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>375</v>
       </c>
@@ -39354,7 +39370,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="337" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>376</v>
       </c>
@@ -39461,7 +39477,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="338" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>377</v>
       </c>
@@ -39571,7 +39587,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>378</v>
       </c>
@@ -39681,7 +39697,7 @@
         <v>18.010899999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>379</v>
       </c>
@@ -39791,7 +39807,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>380</v>
       </c>
@@ -39901,7 +39917,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>381</v>
       </c>
@@ -40008,7 +40024,7 @@
         <v>28.891999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>382</v>
       </c>
@@ -40115,7 +40131,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="344" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>383</v>
       </c>
@@ -40222,7 +40238,7 @@
         <v>41.101200000000013</v>
       </c>
     </row>
-    <row r="345" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>384</v>
       </c>
@@ -40329,7 +40345,7 @@
         <v>47.939749999999997</v>
       </c>
     </row>
-    <row r="346" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>385</v>
       </c>
@@ -40439,7 +40455,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>386</v>
       </c>
@@ -40549,7 +40565,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>387</v>
       </c>
@@ -40659,7 +40675,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>388</v>
       </c>
@@ -40766,7 +40782,7 @@
         <v>28.891999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>389</v>
       </c>
@@ -40873,7 +40889,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="351" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>390</v>
       </c>
@@ -40980,7 +40996,7 @@
         <v>41.101200000000013</v>
       </c>
     </row>
-    <row r="352" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>391</v>
       </c>
@@ -41087,7 +41103,7 @@
         <v>33.167549999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>392</v>
       </c>
@@ -41194,7 +41210,7 @@
         <v>47.939749999999997</v>
       </c>
     </row>
-    <row r="354" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>393</v>
       </c>
@@ -41301,7 +41317,7 @@
         <v>44.514650000000003</v>
       </c>
     </row>
-    <row r="355" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>394</v>
       </c>
@@ -41411,7 +41427,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>395</v>
       </c>
@@ -41521,7 +41537,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>396</v>
       </c>
@@ -41628,7 +41644,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>397</v>
       </c>
@@ -41735,7 +41751,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="359" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>398</v>
       </c>
@@ -41842,7 +41858,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="360" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>399</v>
       </c>
@@ -41949,7 +41965,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="361" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>400</v>
       </c>
@@ -42056,7 +42072,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>401</v>
       </c>
@@ -42163,7 +42179,7 @@
         <v>75.985249999999965</v>
       </c>
     </row>
-    <row r="363" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>402</v>
       </c>
@@ -42270,7 +42286,7 @@
         <v>78.715249999999955</v>
       </c>
     </row>
-    <row r="364" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>403</v>
       </c>
@@ -42377,7 +42393,7 @@
         <v>79.625249999999951</v>
       </c>
     </row>
-    <row r="365" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>404</v>
       </c>
@@ -42484,7 +42500,7 @@
         <v>82.355249999999941</v>
       </c>
     </row>
-    <row r="366" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>405</v>
       </c>
@@ -42591,7 +42607,7 @@
         <v>80.535249999999948</v>
       </c>
     </row>
-    <row r="367" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>406</v>
       </c>
@@ -42698,7 +42714,7 @@
         <v>78.715249999999955</v>
       </c>
     </row>
-    <row r="368" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>407</v>
       </c>
@@ -42805,7 +42821,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="369" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>408</v>
       </c>
@@ -42912,7 +42928,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="370" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>409</v>
       </c>
@@ -43019,7 +43035,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="371" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>410</v>
       </c>
@@ -43126,7 +43142,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="372" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>411</v>
       </c>
@@ -43233,7 +43249,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="373" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>412</v>
       </c>
@@ -43340,7 +43356,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="374" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>413</v>
       </c>
@@ -43447,7 +43463,7 @@
         <v>76.895249999999962</v>
       </c>
     </row>
-    <row r="375" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>414</v>
       </c>
@@ -43554,7 +43570,7 @@
         <v>79.625249999999951</v>
       </c>
     </row>
-    <row r="376" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>415</v>
       </c>
@@ -43661,7 +43677,7 @@
         <v>80.535249999999948</v>
       </c>
     </row>
-    <row r="377" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>416</v>
       </c>
@@ -43768,7 +43784,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>417</v>
       </c>
@@ -43875,7 +43891,7 @@
         <v>76.895249999999962</v>
       </c>
     </row>
-    <row r="379" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>418</v>
       </c>
@@ -43982,7 +43998,7 @@
         <v>79.625249999999951</v>
       </c>
     </row>
-    <row r="380" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>419</v>
       </c>
@@ -44092,7 +44108,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>420</v>
       </c>
@@ -44202,7 +44218,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>421</v>
       </c>
@@ -44312,7 +44328,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>422</v>
       </c>
@@ -44419,7 +44435,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>423</v>
       </c>
@@ -44526,7 +44542,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="385" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>424</v>
       </c>
@@ -44633,7 +44649,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>425</v>
       </c>
@@ -44743,7 +44759,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>426</v>
       </c>
@@ -44853,7 +44869,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>427</v>
       </c>
@@ -44963,7 +44979,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>428</v>
       </c>
@@ -45073,7 +45089,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>429</v>
       </c>
@@ -45183,7 +45199,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>430</v>
       </c>
@@ -45293,7 +45309,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>431</v>
       </c>
@@ -45403,7 +45419,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>432</v>
       </c>
@@ -45513,7 +45529,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>433</v>
       </c>
@@ -45623,7 +45639,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>434</v>
       </c>
@@ -45733,7 +45749,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>435</v>
       </c>
@@ -45843,7 +45859,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>436</v>
       </c>
@@ -45953,7 +45969,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>437</v>
       </c>
@@ -46063,7 +46079,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>438</v>
       </c>
@@ -46173,7 +46189,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>439</v>
       </c>
@@ -46280,7 +46296,7 @@
         <v>30.11525</v>
       </c>
     </row>
-    <row r="401" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>440</v>
       </c>
@@ -46390,7 +46406,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>441</v>
       </c>
@@ -46500,7 +46516,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="403" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>442</v>
       </c>
@@ -46610,7 +46626,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>443</v>
       </c>
@@ -46717,7 +46733,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>444</v>
       </c>
@@ -46824,7 +46840,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>445</v>
       </c>
@@ -46934,7 +46950,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>446</v>
       </c>
@@ -47044,7 +47060,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="408" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>447</v>
       </c>
@@ -47154,7 +47170,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>448</v>
       </c>
@@ -47264,7 +47280,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>449</v>
       </c>
@@ -47371,7 +47387,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>450</v>
       </c>
@@ -47478,7 +47494,7 @@
         <v>47.939749999999997</v>
       </c>
     </row>
-    <row r="412" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>451</v>
       </c>
@@ -47585,7 +47601,7 @@
         <v>47.939749999999997</v>
       </c>
     </row>
-    <row r="413" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>452</v>
       </c>
@@ -47692,7 +47708,7 @@
         <v>47.939749999999997</v>
       </c>
     </row>
-    <row r="414" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>453</v>
       </c>
@@ -47799,7 +47815,7 @@
         <v>65.053600000000003</v>
       </c>
     </row>
-    <row r="415" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>454</v>
       </c>
@@ -47906,7 +47922,7 @@
         <v>47.939749999999997</v>
       </c>
     </row>
-    <row r="416" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>455</v>
       </c>
@@ -48013,7 +48029,7 @@
         <v>47.939749999999997</v>
       </c>
     </row>
-    <row r="417" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>456</v>
       </c>
@@ -48120,7 +48136,7 @@
         <v>51.364849999999997</v>
       </c>
     </row>
-    <row r="418" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>457</v>
       </c>
@@ -48227,7 +48243,7 @@
         <v>65.053600000000003</v>
       </c>
     </row>
-    <row r="419" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>458</v>
       </c>
@@ -48334,7 +48350,7 @@
         <v>47.939749999999997</v>
       </c>
     </row>
-    <row r="420" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>459</v>
       </c>
@@ -48441,7 +48457,7 @@
         <v>47.939749999999997</v>
       </c>
     </row>
-    <row r="421" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>460</v>
       </c>
@@ -48548,7 +48564,7 @@
         <v>51.364849999999997</v>
       </c>
     </row>
-    <row r="422" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>461</v>
       </c>
@@ -48658,7 +48674,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>462</v>
       </c>
@@ -48768,7 +48784,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>463</v>
       </c>
@@ -48878,7 +48894,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>464</v>
       </c>
@@ -48988,7 +49004,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="426" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>465</v>
       </c>
@@ -49098,7 +49114,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="427" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>466</v>
       </c>
@@ -49208,7 +49224,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="428" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>467</v>
       </c>
@@ -49318,7 +49334,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>468</v>
       </c>
@@ -49428,7 +49444,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="430" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>469</v>
       </c>
@@ -49535,7 +49551,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="431" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>470</v>
       </c>
@@ -49642,7 +49658,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="432" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>471</v>
       </c>
@@ -49752,7 +49768,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>472</v>
       </c>
@@ -49859,7 +49875,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>473</v>
       </c>
@@ -49966,7 +49982,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>474</v>
       </c>
@@ -50076,7 +50092,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>475</v>
       </c>
@@ -50186,7 +50202,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>476</v>
       </c>
@@ -50296,7 +50312,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>477</v>
       </c>
@@ -50406,7 +50422,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="439" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>478</v>
       </c>
@@ -50516,7 +50532,7 @@
         <v>28.286200000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>479</v>
       </c>
@@ -50626,7 +50642,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>480</v>
       </c>
@@ -50736,7 +50752,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>481</v>
       </c>
@@ -50846,7 +50862,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>482</v>
       </c>
@@ -50959,7 +50975,7 @@
         <v>72.789950000000005</v>
       </c>
     </row>
-    <row r="444" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>483</v>
       </c>
@@ -51069,7 +51085,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>484</v>
       </c>
@@ -51179,7 +51195,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>485</v>
       </c>
@@ -51289,7 +51305,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>486</v>
       </c>
@@ -51399,7 +51415,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>487</v>
       </c>
@@ -51509,7 +51525,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="449" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>488</v>
       </c>
@@ -51619,7 +51635,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>489</v>
       </c>
@@ -51726,7 +51742,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>490</v>
       </c>
@@ -51836,7 +51852,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>491</v>
       </c>
@@ -51946,7 +51962,7 @@
         <v>28.286200000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>492</v>
       </c>
@@ -52056,7 +52072,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>493</v>
       </c>
@@ -52163,7 +52179,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="455" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>494</v>
       </c>
@@ -52273,7 +52289,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>495</v>
       </c>
@@ -52383,7 +52399,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>496</v>
       </c>
@@ -52493,7 +52509,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>497</v>
       </c>
@@ -52603,7 +52619,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="459" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>498</v>
       </c>
@@ -52713,7 +52729,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="460" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>499</v>
       </c>
@@ -52823,7 +52839,7 @@
         <v>63.286200000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>500</v>
       </c>
@@ -52933,7 +52949,7 @@
         <v>31.3385</v>
       </c>
     </row>
-    <row r="462" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>501</v>
       </c>
@@ -53043,7 +53059,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>502</v>
       </c>
@@ -53153,7 +53169,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>503</v>
       </c>
@@ -53263,7 +53279,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>504</v>
       </c>
@@ -53373,7 +53389,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="466" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>505</v>
       </c>
@@ -53483,7 +53499,7 @@
         <v>23.40485</v>
       </c>
     </row>
-    <row r="467" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>506</v>
       </c>
@@ -53590,7 +53606,7 @@
         <v>82.939750000000004</v>
       </c>
     </row>
-    <row r="468" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>507</v>
       </c>
@@ -53700,7 +53716,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>508</v>
       </c>
@@ -53810,7 +53826,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>509</v>
       </c>
@@ -53917,7 +53933,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>510</v>
       </c>
@@ -54027,7 +54043,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>511</v>
       </c>
@@ -54137,7 +54153,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>512</v>
       </c>
@@ -54247,7 +54263,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>513</v>
       </c>
@@ -54360,7 +54376,7 @@
         <v>23.40485</v>
       </c>
     </row>
-    <row r="475" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>514</v>
       </c>
@@ -54470,7 +54486,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="476" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>515</v>
       </c>
@@ -54583,7 +54599,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="477" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>516</v>
       </c>
@@ -54693,7 +54709,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="478" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>517</v>
       </c>
@@ -54803,7 +54819,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="479" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>518</v>
       </c>
@@ -54913,7 +54929,7 @@
         <v>61.457149999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>519</v>
       </c>
@@ -55023,7 +55039,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="481" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>520</v>
       </c>
@@ -55133,7 +55149,7 @@
         <v>28.286200000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -55243,7 +55259,7 @@
         <v>23.40485</v>
       </c>
     </row>
-    <row r="483" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>522</v>
       </c>
@@ -55353,7 +55369,7 @@
         <v>23.40485</v>
       </c>
     </row>
-    <row r="484" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>523</v>
       </c>
@@ -55463,7 +55479,7 @@
         <v>30.11525</v>
       </c>
     </row>
-    <row r="485" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>524</v>
       </c>
@@ -55570,7 +55586,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>525</v>
       </c>
@@ -55680,7 +55696,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>526</v>
       </c>
@@ -55790,7 +55806,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>527</v>
       </c>
@@ -55900,7 +55916,7 @@
         <v>31.944299999999998</v>
       </c>
     </row>
-    <row r="489" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>528</v>
       </c>
@@ -56007,7 +56023,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>369</v>
       </c>
@@ -56114,7 +56130,7 @@
         <v>41.101200000000013</v>
       </c>
     </row>
-    <row r="491" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>368</v>
       </c>
@@ -56221,7 +56237,7 @@
         <v>82.939750000000004</v>
       </c>
     </row>
-    <row r="492" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>216</v>
       </c>
@@ -56331,7 +56347,7 @@
         <v>82.939750000000004</v>
       </c>
     </row>
-    <row r="493" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>529</v>
       </c>
@@ -56438,7 +56454,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>530</v>
       </c>
@@ -56545,7 +56561,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>531</v>
       </c>
@@ -56652,7 +56668,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="496" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>532</v>
       </c>
@@ -56759,7 +56775,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="497" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>533</v>
       </c>
@@ -56866,7 +56882,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>534</v>
       </c>
@@ -57080,7 +57096,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>536</v>
       </c>
@@ -57187,7 +57203,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>537</v>
       </c>
@@ -57294,7 +57310,7 @@
         <v>34.390799999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>538</v>
       </c>
@@ -57401,7 +57417,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="503" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>539</v>
       </c>
@@ -57508,7 +57524,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>540</v>
       </c>
@@ -57615,7 +57631,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>541</v>
       </c>
@@ -57725,7 +57741,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>542</v>
       </c>
@@ -57832,7 +57848,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>543</v>
       </c>
@@ -57939,7 +57955,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="508" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>544</v>
       </c>
@@ -58046,7 +58062,7 @@
         <v>24.6281</v>
       </c>
     </row>
-    <row r="509" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>545</v>
       </c>
@@ -58153,7 +58169,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>546</v>
       </c>
@@ -58370,7 +58386,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="512" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>548</v>
       </c>
@@ -58477,7 +58493,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>549</v>
       </c>
@@ -58584,7 +58600,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>550</v>
       </c>
@@ -58691,7 +58707,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>551</v>
       </c>
@@ -58801,7 +58817,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>552</v>
       </c>
@@ -58908,7 +58924,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>553</v>
       </c>
@@ -59015,7 +59031,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>554</v>
       </c>
@@ -59122,7 +59138,7 @@
         <v>110.3652499999999</v>
       </c>
     </row>
-    <row r="519" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>555</v>
       </c>
@@ -59229,7 +59245,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="520" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>556</v>
       </c>
@@ -59336,7 +59352,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>557</v>
       </c>
@@ -59443,7 +59459,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>558</v>
       </c>
@@ -59553,7 +59569,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>559</v>
       </c>
@@ -59660,7 +59676,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>560</v>
       </c>
@@ -59767,7 +59783,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>561</v>
       </c>
@@ -59874,7 +59890,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>562</v>
       </c>
@@ -59984,7 +60000,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="527" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>563</v>
       </c>
@@ -60094,7 +60110,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>565</v>
       </c>
@@ -60204,7 +60220,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>566</v>
       </c>
@@ -60314,7 +60330,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="530" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>567</v>
       </c>
@@ -60534,7 +60550,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>569</v>
       </c>
@@ -60641,7 +60657,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="533" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>570</v>
       </c>
@@ -60748,7 +60764,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>571</v>
       </c>
@@ -60855,7 +60871,7 @@
         <v>110.56524999999981</v>
       </c>
     </row>
-    <row r="535" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>572</v>
       </c>
@@ -60965,7 +60981,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>573</v>
       </c>
@@ -61072,7 +61088,7 @@
         <v>41.101200000000013</v>
       </c>
     </row>
-    <row r="537" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>574</v>
       </c>
@@ -61182,7 +61198,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>575</v>
       </c>
@@ -61289,7 +61305,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>576</v>
       </c>
@@ -61402,7 +61418,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>577</v>
       </c>
@@ -61512,7 +61528,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>578</v>
       </c>
@@ -61619,7 +61635,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="542" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>579</v>
       </c>
@@ -61726,7 +61742,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>580</v>
       </c>
@@ -61833,7 +61849,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>581</v>
       </c>
@@ -61940,7 +61956,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>582</v>
       </c>
@@ -62047,7 +62063,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>583</v>
       </c>
@@ -62157,7 +62173,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>584</v>
       </c>
@@ -62264,7 +62280,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>585</v>
       </c>
@@ -62371,7 +62387,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>586</v>
       </c>
@@ -62478,7 +62494,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>587</v>
       </c>
@@ -62585,7 +62601,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>588</v>
       </c>
@@ -62692,7 +62708,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>589</v>
       </c>
@@ -62799,7 +62815,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>590</v>
       </c>
@@ -62906,7 +62922,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="554" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>591</v>
       </c>
@@ -63013,7 +63029,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>592</v>
       </c>
@@ -63120,7 +63136,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>593</v>
       </c>
@@ -63230,7 +63246,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>594</v>
       </c>
@@ -63337,7 +63353,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>595</v>
       </c>
@@ -63444,7 +63460,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>596</v>
       </c>
@@ -63551,7 +63567,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="560" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>597</v>
       </c>
@@ -63658,7 +63674,7 @@
         <v>25.85135</v>
       </c>
     </row>
-    <row r="561" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>598</v>
       </c>
@@ -63765,7 +63781,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>599</v>
       </c>
@@ -63875,7 +63891,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>600</v>
       </c>
@@ -63982,7 +63998,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>601</v>
       </c>
@@ -64089,7 +64105,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="565" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>602</v>
       </c>
@@ -64196,7 +64212,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>603</v>
       </c>
@@ -64303,7 +64319,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="567" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>604</v>
       </c>
@@ -64731,7 +64747,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="571" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>608</v>
       </c>
@@ -64838,7 +64854,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="572" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>609</v>
       </c>
@@ -64945,7 +64961,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="573" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>610</v>
       </c>
@@ -65052,7 +65068,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>571</v>
       </c>
@@ -65159,7 +65175,7 @@
         <v>110.56524999999981</v>
       </c>
     </row>
-    <row r="575" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>611</v>
       </c>
@@ -65266,7 +65282,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>612</v>
       </c>
@@ -65908,7 +65924,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="582" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>617</v>
       </c>
@@ -66015,7 +66031,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="583" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>618</v>
       </c>
@@ -66122,7 +66138,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>619</v>
       </c>
@@ -66229,7 +66245,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="585" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>620</v>
       </c>
@@ -66336,7 +66352,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="586" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>621</v>
       </c>
@@ -66443,7 +66459,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="587" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>622</v>
       </c>
@@ -66550,7 +66566,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="588" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>623</v>
       </c>
@@ -66660,7 +66676,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="589" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>624</v>
       </c>
@@ -66770,7 +66786,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="590" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>625</v>
       </c>
@@ -66880,7 +66896,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="591" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>626</v>
       </c>
@@ -66987,7 +67003,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>627</v>
       </c>
@@ -67094,7 +67110,7 @@
         <v>54.789949999999997</v>
       </c>
     </row>
-    <row r="593" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>628</v>
       </c>
@@ -67201,7 +67217,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>629</v>
       </c>
@@ -67308,7 +67324,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>630</v>
       </c>
@@ -67415,7 +67431,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>631</v>
       </c>
@@ -67629,7 +67645,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>334</v>
       </c>
@@ -67736,7 +67752,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="599" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>633</v>
       </c>
@@ -67843,7 +67859,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="600" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>634</v>
       </c>
@@ -67950,7 +67966,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="601" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>635</v>
       </c>
@@ -68164,7 +68180,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="603" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>636</v>
       </c>
@@ -68271,7 +68287,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="604" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>637</v>
       </c>
@@ -68378,7 +68394,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="605" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>638</v>
       </c>
@@ -68485,7 +68501,7 @@
         <v>110.56524999999981</v>
       </c>
     </row>
-    <row r="606" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>639</v>
       </c>
@@ -68592,7 +68608,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="607" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>640</v>
       </c>
@@ -68681,7 +68697,7 @@
         <v>128.56524999999979</v>
       </c>
     </row>
-    <row r="608" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>641</v>
       </c>
@@ -68788,7 +68804,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="609" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>626</v>
       </c>
@@ -68895,7 +68911,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="610" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>642</v>
       </c>
@@ -69002,7 +69018,7 @@
         <v>16.915800000000001</v>
       </c>
     </row>
-    <row r="611" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>643</v>
       </c>
@@ -69109,7 +69125,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="612" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>644</v>
       </c>
@@ -69216,7 +69232,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>645</v>
       </c>
@@ -69323,7 +69339,7 @@
         <v>28.286200000000001</v>
       </c>
     </row>
-    <row r="614" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>646</v>
       </c>
@@ -69430,7 +69446,7 @@
         <v>15.8207</v>
       </c>
     </row>
-    <row r="615" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>647</v>
       </c>
@@ -69537,7 +69553,7 @@
         <v>19.106000000000002</v>
       </c>
     </row>
-    <row r="616" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>541</v>
       </c>
@@ -69644,7 +69660,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="617" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>648</v>
       </c>
@@ -69822,7 +69838,7 @@
         <v>14.795500000000001</v>
       </c>
     </row>
-    <row r="619" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>650</v>
       </c>
@@ -70090,13 +70106,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK621" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AK621" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
